--- a/evaluate/data/data_evaluate_TPHCM.xlsx
+++ b/evaluate/data/data_evaluate_TPHCM.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDTU\Year_4_Semester1\Dự án\Code\evaluate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D265771-8256-41BA-B8BA-4BC62DE966EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4640A5DE-7057-4079-969C-34E9B9255572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Question</t>
   </si>
@@ -39,18 +48,6 @@
     <t>Du khách có thể thưởng thức các món ăn truyền thống của người Hoa như súp vi cá, vịt quay Bắc Kinh, há cảo, xá xíu và bánh trung thu thủ công quanh khu Hải Thượng Lãn Ông – Chợ Lớn.</t>
   </si>
   <si>
-    <t>Gần chùa Vạn Phật (66/14 Nghĩa Thục, Quận 5) có những quán chay nào được yêu thích?</t>
-  </si>
-  <si>
-    <t>Khu vực gần chùa Vạn Phật có nhiều quán chay nổi tiếng như quán cơm chay Tâm Đức, Bồ Đề, và Tiên Giác, phục vụ món chay truyền thống Việt – Hoa.</t>
-  </si>
-  <si>
-    <t>Du khách tham quan Đình Minh Hương Gia Thạnh (380 Trần Hưng Đạo) có thể tìm thấy đặc sản gì ở khu vực này?</t>
-  </si>
-  <si>
-    <t>Gần Đình Minh Hương Gia Thạnh có nhiều quán hủ tiếu sa tế Triều Châu, bánh bao, và các món Hoa đặc trưng của cộng đồng Minh Hương tại Quận 5.</t>
-  </si>
-  <si>
     <t>Hội quán Tuệ Thành (710 Nguyễn Trãi) có gì đặc biệt khiến du khách nên ghé thăm?</t>
   </si>
   <si>
@@ -75,42 +72,12 @@
     <t>Đây là nơi Tổng Bí thư Trần Phú – người lãnh đạo đầu tiên của Đảng Cộng sản Đông Dương – bị giam giữ và hy sinh năm 1931, được công nhận là "Di tích lịch sử cấp Quốc gia".</t>
   </si>
   <si>
-    <t>Du khách có thể tìm khách sạn nào thuận tiện khi tham quan các hội quán trên đường Nguyễn Trãi (Quận 5)?</t>
-  </si>
-  <si>
-    <t>Khu vực Nguyễn Trãi – Chợ Lớn có nhiều khách sạn tầm trung và homestay gần Hội quán Nghĩa An, Tuệ Thành, Hà Chương, thuận tiện cho khách du lịch khám phá di sản người Hoa.</t>
-  </si>
-  <si>
-    <t>Có khách sạn nào gần Hội quán Hà Chương (802 Nguyễn Trãi) phù hợp cho khách du lịch văn hóa?</t>
-  </si>
-  <si>
-    <t>Du khách có thể nghỉ tại khách sạn Phú Thịnh hoặc khách sạn Chinatown Boutique nằm trong bán kính 500m, thuận tiện di chuyển giữa các hội quán cổ.</t>
-  </si>
-  <si>
-    <t>Gần Trường THPT Chuyên Lê Hồng Phong (235 Nguyễn Văn Cừ, quận 5) có khu lưu trú nào phù hợp cho khách tham quan kiến trúc cổ?</t>
-  </si>
-  <si>
-    <t>Có các khách sạn như Signature Saigon Hotel hoặc Liberty Hotel Saigon Parkview ở khu Nguyễn Trãi – Nguyễn Văn Cừ, thuận tiện tham quan các di tích kiến trúc cổ của Quận 5.</t>
-  </si>
-  <si>
-    <t>Khi đến tham quan Đình Tân Kiểng (718/10 Trần Hưng Đạo), du khách nên chọn nơi lưu trú nào gần đó?</t>
-  </si>
-  <si>
-    <t>Du khách có thể ở tại khách sạn Quê Hương Liberty hoặc khách sạn Garden View trên đường Trần Hưng Đạo, chỉ cách Đình Tân Kiểng vài phút đi bộ.</t>
-  </si>
-  <si>
     <t>Hội quán Nghĩa An tổ chức những lễ hội nào đặc sắc hàng năm?</t>
   </si>
   <si>
     <t>Hai lễ lớn là Lễ Nguyên Tiêu (Rằm tháng Giêng) và lễ Vía Ông (24/06 Âm lịch).</t>
   </si>
   <si>
-    <t>Ở Hội quán Tuệ Thành, lễ hội nào được tổ chức long trọng nhất?</t>
-  </si>
-  <si>
-    <t>Lễ hội được tổ chức long trọng nhất tại **Hội quán Tuệ Thành** là **Lễ hội Đấu giá đèn lồng** (được tổ chức vào ngày 17 hoặc 18 tháng Giêng âm lịch). Đây là hoạt động truyền thống quan trọng, thu hút đông đảo du khách và người dân tham gia, đồng thời giữ nguyên nét trang trọng, nghi lễ của hội quán. Sau ngày 18 Giêng, Hội quán Tuệ Thành chủ yếu còn tổ chức các buổi ca kịch cổ truyền, không còn các nghi lễ lớn như đấu giá đèn lồng.</t>
-  </si>
-  <si>
     <t>Lễ hội nào diễn ra tại Hội quán Lệ Châu thu hút nhiều nghệ nhân thợ bạc miền Nam?</t>
   </si>
   <si>
@@ -123,54 +90,18 @@
     <t>Lễ Kỳ Yên được tổ chức vào ngày 16 tháng Giêng Âm lịch, là lễ hội quan trọng nhất của Đình Minh Hương Gia Thạnh.</t>
   </si>
   <si>
-    <t>Cách thuận tiện nhất để đến Hội quán Phước An (184 Hồng Bàng) là gì?</t>
-  </si>
-  <si>
-    <t>Du khách có thể đi xe buýt tuyến 1, 6 hoặc 139 dừng tại trạm Hồng Bàng – Triệu Quang Phục, sau đó đi bộ khoảng 3 phút.</t>
-  </si>
-  <si>
-    <t>Làm sao để di chuyển từ Hội quán Nghĩa Nhuận (27 Phan Văn Khỏe) đến Hội quán Quỳnh Phủ (276 Trần Hưng Đạo, Quận 5)?</t>
-  </si>
-  <si>
-    <t>Hai điểm cách nhau khoảng 2km, có thể đi xe máy hoặc taxi qua tuyến Phan Văn Khỏe – Hải Thượng Lãn Ông – Trần Hưng Đạo, mất khoảng 7 phút.</t>
-  </si>
-  <si>
-    <t>Du khách có thể sử dụng phương tiện gì để tham quan nhiều hội quán trên đường Nguyễn Trãi cùng lúc?</t>
-  </si>
-  <si>
-    <t>Có thể thuê xe đạp, xe máy hoặc sử dụng xe buýt nội thành để dễ dàng tham quan các hội quán như Tuệ Thành, Nghĩa An và Hà Chương chỉ cách nhau vài trăm mét.</t>
-  </si>
-  <si>
-    <t>Địa điểm nào có thể làm điểm khởi hành tốt nhất cho chuyến tham quan di tích Quận 5 bằng phương tiện công cộng?</t>
-  </si>
-  <si>
-    <t>Nhà lưu niệm Bác Hồ (5 Châu Văn Liêm) là điểm khởi hành thuận tiện vì nằm gần nhiều tuyến xe buýt lớn và trung tâm giao thông của Quận 5.</t>
-  </si>
-  <si>
     <t>Khi tham dự Lễ hội Nguyên Tiêu ở Quận 5, du khách có thể thưởng thức những món ăn đặc trưng nào của người Hoa?</t>
   </si>
   <si>
     <t>Trong Lễ hội Nguyên tiêu, người Hoa thường bày bán các đặc sản truyền thống như bánh hẹ, bánh nếp, tàu hủ chiên, hột gà tiềm thuốc bắc và các món ăn đường phố Quảng Đông – Triều Châu.</t>
   </si>
   <si>
-    <t>Ẩm thực có vai trò như thế nào trong các buổi trình diễn Đờn ca tài tử Nam Bộ tại Cần Giờ?</t>
-  </si>
-  <si>
-    <t>Đờn ca tài tử luôn gắn với sinh hoạt văn hóa ẩm thực Nam Bộ – thể hiện truyền thống trọng tình, phóng khoáng và thanh tao của người dân vùng sông nước.</t>
-  </si>
-  <si>
     <t>Khi du khách đến Trung tâm Văn hóa Quận 5 trong dịp Tết Nguyên Tiêu, có thể tìm thấy khu ẩm thực như thế nào?</t>
   </si>
   <si>
     <t>Trong tuần lễ Nguyên tiêu, khu ẩm thực người Hoa tại Trung tâm Văn hóa Quận 5 bày bán các món ăn truyền thống, bánh ngọt và thức uống mang đậm văn hóa Quảng Đông.</t>
   </si>
   <si>
-    <t>Khu vực Hội quán Nghĩa An trong lễ hội có bán món ăn nào mang ý nghĩa cầu may?</t>
-  </si>
-  <si>
-    <t>Người Hoa thường bán bánh nếp, bánh hẹ tượng trưng cho sự đoàn viên, sung túc trong dịp Nguyên Tiêu tại khu vực Hội quán Nghĩa An.</t>
-  </si>
-  <si>
     <t>Nhà lưu niệm Bác Hồ (5 Châu Văn Liêm, Quận 5) có ý nghĩa lịch sử như thế nào?</t>
   </si>
   <si>
@@ -189,30 +120,6 @@
     <t>Giồng Cá Vồ là di chỉ khảo cổ có niên đại trên 2.000 năm, phát hiện nhiều mộ chum và hiện vật văn hóa Sa Huỳnh – Óc Eo, thể hiện đời sống cư dân cổ Nam Bộ.</t>
   </si>
   <si>
-    <t>Khi đến huyện Cần Giờ để dự Lễ hội Nghinh Ông, du khách nên chọn khu lưu trú nào thuận tiện?</t>
-  </si>
-  <si>
-    <t>Du khách có thể nghỉ tại các nhà nghỉ, resort dọc bãi biển Cần Thạnh – Long Hòa như Cần Giờ Resort hoặc homestay Thiềng Liềng, thuận tiện cho việc tham dự lễ hội.</t>
-  </si>
-  <si>
-    <t>Có khu lưu trú nào gần Nhà lưu niệm Bác Hồ (Quận 5) phù hợp cho du khách tham quan di tích lịch sử?</t>
-  </si>
-  <si>
-    <t>Du khách có thể ở các khách sạn trung tâm Quận 5 như Windsor Plaza, Hùng Vương Hotel hoặc Chinatown Boutique, cách di tích chỉ vài phút di chuyển.</t>
-  </si>
-  <si>
-    <t>Du khách tham quan Địa đạo Phú Thọ Hòa có thể ở đâu để thuận tiện di chuyển đến các di tích khác?</t>
-  </si>
-  <si>
-    <t>Có thể chọn khách sạn trong khu vực Tân Phú hoặc Tân Bình như Thanh Bình Hotel hoặc Ibis Airport, thuận tiện đi lại giữa Phú Thọ Hòa và trung tâm thành phố.</t>
-  </si>
-  <si>
-    <t>Khi tham gia các chương trình văn hóa nghệ thuật tại Quận 5, du khách nên chọn nơi nghỉ ở khu vực nào?</t>
-  </si>
-  <si>
-    <t>Nên lưu trú tại khu vực Nguyễn Trãi, Hải Thượng Lãn Ông hoặc Triệu Quang Phục – trung tâm hoạt động lễ hội và ẩm thực người Hoa Quận 5.</t>
-  </si>
-  <si>
     <t>Lễ hội Nghinh Ông Cần Giờ thường được tổ chức vào thời gian nào hàng năm?</t>
   </si>
   <si>
@@ -255,12 +162,6 @@
     <t>Họ làm nghề dập nút đồng, khóa cặp học sinh và sau này làm nghề may gia công quần áo để át tiếng máy in và giữ bí mật.</t>
   </si>
   <si>
-    <t>rong căn hầm in tài liệu ở 341/10 Gia Phú, Quận 6, giấy in được sử dụng là loại gì và có đặc điểm ra sao?</t>
-  </si>
-  <si>
-    <t>Là loại giấy vấn thuốc lá Trung Quốc, nhẹ, mỏng nhưng in được hai mặt và dễ vận chuyển.</t>
-  </si>
-  <si>
     <t>Tại chùa Thiên Tôn (Quận 5), phòng thuốc Nam có vai trò gì trong thời kỳ kháng chiến?</t>
   </si>
   <si>
@@ -315,24 +216,12 @@
     <t>Du khách đến Thiềng Liềng có thể thưởng thức các món ẩm thực dân dã của vùng ấp đảo như hải sản tươi sống, cá khô, muối thủ công và các món ăn mang hương vị miền biển đặc trưng.</t>
   </si>
   <si>
-    <t>Ẩm thực tại khu vực Đường Sách Nguyễn Văn Bình, Quận 1, có điểm gì nổi bật?</t>
-  </si>
-  <si>
-    <t>Đường Sách có các quán cà phê sách và gian hàng quà lưu niệm, nơi du khách có thể thưởng thức đồ uống nhẹ và món ăn nhẹ trong không gian đọc sách giữa trung tâm Sài Gòn.</t>
-  </si>
-  <si>
     <t>Khi đến Nhà thờ Hạnh Thông Tây ở Gò Vấp, du khách có thể tìm thấy món ăn truyền thống nào gần khu vực này?</t>
   </si>
   <si>
     <t>Khu vực quanh Nhà thờ Hạnh Thông Tây nổi tiếng với các quán ăn địa phương như bún bò, hủ tiếu, và cà phê vỉa hè mang phong vị đặc trưng Sài Gòn xưa.</t>
   </si>
   <si>
-    <t>Tại Miếu Ngũ Hành – Chùa Bà Châu Đốc 2 (Nhà Bè), du khách có thể thưởng thức những món chay nào trong dịp lễ vía Bà?</t>
-  </si>
-  <si>
-    <t>Trong dịp lễ vía Bà, các quầy hàng quanh miếu thường phục vụ món chay như bún riêu chay, cơm tấm chay và chè truyền thống phục vụ khách hành hương.</t>
-  </si>
-  <si>
     <t>Nhà thờ Thủ Thiêm có điểm gì nổi bật về kiến trúc thu hút du khách?</t>
   </si>
   <si>
@@ -369,24 +258,6 @@
     <t>Công viên có các khu mô phỏng lịch sử Việt Nam từ thời Hùng Vương đến hiện đại, với Đền Tưởng niệm các Vua Hùng và Đền thờ Lễ Thành hầu Nguyễn Hữu Cảnh, là nơi giáo dục truyền thống dân tộc.</t>
   </si>
   <si>
-    <t>Có cơ sở lưu trú nào gần Nhà thờ Thủ Thiêm phù hợp cho du khách muốn nghỉ lại?</t>
-  </si>
-  <si>
-    <t>Khu vực Thủ Thiêm có nhiều khách sạn và homestay ven sông Sài Gòn, thuận tiện di chuyển sang trung tâm Quận 1, phù hợp cho du khách muốn khám phá kiến trúc cổ và cảnh sông nước.</t>
-  </si>
-  <si>
-    <t>Khi tham quan Bảo tàng Lực lượng Vũ trang Miền Đông Nam Bộ, du khách có thể nghỉ ở đâu gần Quận Tân Bình?</t>
-  </si>
-  <si>
-    <t>Du khách có thể chọn các khách sạn trung tâm như Ibis Saigon Airport, Parkroyal Saigon, hoặc các homestay quanh đường Hoàng Văn Thụ – thuận tiện di chuyển.</t>
-  </si>
-  <si>
-    <t>Khu du lịch cộng đồng Thiềng Liềng có dịch vụ lưu trú cho du khách không?</t>
-  </si>
-  <si>
-    <t>Hiện nay ấp Thiềng Liềng có các homestay cộng đồng do người dân địa phương vận hành, phục vụ trải nghiệm văn hóa, ẩm thực và nghỉ dưỡng giữa ruộng muối và rừng ngập mặn.</t>
-  </si>
-  <si>
     <t>Lễ Kỳ Yên tại Đình Cần Thạnh, huyện Cần Giờ, diễn ra vào thời gian nào?</t>
   </si>
   <si>
@@ -399,12 +270,6 @@
     <t>Đình có ba lễ lớn: Lễ Kỳ yên (15–17 tháng 2 âm lịch), Lễ Hạ điền (16 tháng 5 âm lịch), và Lễ Cầu bông (16 tháng 10 âm lịch), đều gắn với nghi lễ cầu an và hát bội truyền thống.</t>
   </si>
   <si>
-    <t>Lễ Giỗ Đức Lễ Thành hầu Nguyễn Hữu Cảnh được tổ chức ở đâu và vào ngày nào?</t>
-  </si>
-  <si>
-    <t>Lễ Giỗ được tổ chức tại Đền thờ Nguyễn Hữu Cảnh trong Công viên Lịch sử - Văn hóa Dân tộc, vào ngày 16 tháng 5 âm lịch hằng năm, với biểu diễn múa rồng và đờn ca tài tử.</t>
-  </si>
-  <si>
     <t>Miếu Nổi (Gò Vấp) có những ngày lễ cúng lớn nào trong năm?</t>
   </si>
   <si>
@@ -417,24 +282,12 @@
     <t>Phố Ẩm thực Phan Xích Long, Phường 2, Quận Phú Nhuận là khu vực tập trung nhiều nhà hàng, quán ăn và quán cà phê nổi tiếng.</t>
   </si>
   <si>
-    <t>Du khách có thể thưởng thức những món ăn đến từ quốc gia nào tại Phố Ẩm thực Phan Xích Long?</t>
-  </si>
-  <si>
-    <t>Du khách có thể thưởng thức món ăn Việt Nam, Nhật Bản, Hàn Quốc, Trung Hoa, Thái Lan và các món ăn phương Tây.</t>
-  </si>
-  <si>
     <t>Vì sao khu vực Phan Xích Long được xem là điểm đến ẩm thực hấp dẫn?</t>
   </si>
   <si>
     <t>Vì có cảnh quan đẹp, giao thông thuận tiện và tập trung nhiều thương hiệu ẩm thực nổi tiếng trong và ngoài nước.</t>
   </si>
   <si>
-    <t>Phố Ẩm thực Vĩnh Khánh ở Quận 4 chính thức được ra mắt vào thời gian nào?</t>
-  </si>
-  <si>
-    <t>Phố Ẩm thực Vĩnh Khánh được ra mắt chính thức vào ngày 30 tháng 3 năm 2018.</t>
-  </si>
-  <si>
     <t>Điểm đặc trưng nổi bật nhất của Phố Ẩm thực Vĩnh Khánh là gì?</t>
   </si>
   <si>
@@ -637,6 +490,156 @@
   </si>
   <si>
     <t>Khu vực trung tâm Quận 1 và Quận 5 có nhiều món ăn đường phố nổi tiếng như bánh mì, hủ tiếu, cơm tấm, chè Hoa và các món nướng đêm, thể hiện nét “thành phố không ngủ” của Sài Gòn.</t>
+  </si>
+  <si>
+    <t>Thành phố Hồ Chí Minh có bao nhiêu cơ sở tín ngưỡng được thống kê?</t>
+  </si>
+  <si>
+    <t>Hiện nay Thành phố có 1.073 cơ sở tín ngưỡng, bao gồm đình, đền, miếu, am, lăng và hội quán.</t>
+  </si>
+  <si>
+    <t>Tại sao người Sài Gòn được cho là cởi mở với nhiều tôn giáo khác nhau?</t>
+  </si>
+  <si>
+    <t>Vì người Sài Gòn chấp nhận nhiều xu hướng tín ngưỡng khác biệt, không kỳ thị tôn giáo nào và vẫn duy trì tín ngưỡng thờ cúng tổ tiên truyền thống.</t>
+  </si>
+  <si>
+    <t>Rừng Sác – Cần Giờ có vai trò gì trong kháng chiến?</t>
+  </si>
+  <si>
+    <t>Rừng Sác là căn cứ chiến lược quan trọng của lực lượng đặc công thủy trong kháng chiến chống Pháp và Mỹ, nay được công nhận là Khu Dự trữ Sinh quyển Thế giới đầu tiên của Việt Nam.</t>
+  </si>
+  <si>
+    <t>Du khách có thể đến Căn cứ Rừng Sác bằng phương tiện nào thuận tiện nhất?</t>
+  </si>
+  <si>
+    <t>Du khách có thể đến Căn cứ Rừng Sác bằng đường thủy hoặc đường bộ qua huyện Nhà Bè – Cần Giờ, theo tuyến quốc lộ 15 hoặc tàu cao tốc trên sông Lòng Tàu.</t>
+  </si>
+  <si>
+    <t>Cầu Mống có đặc điểm kỹ thuật gì đặc biệt so với các cầu khác?</t>
+  </si>
+  <si>
+    <t>Cầu Mống là cây cầu sắt đầu tiên ở Sài Gòn, được xây dựng theo kỹ thuật Eiffel với một nhịp vòm cong dài 128m và hoàn toàn bằng thép.</t>
+  </si>
+  <si>
+    <t>Bưu điện Thành phố Hồ Chí Minh được thiết kế theo phong cách nào và do ai thực hiện?</t>
+  </si>
+  <si>
+    <t>Bưu điện Thành phố được hai kiến trúc sư người Pháp Alfrend Foulhoux và Henri Vildieu thiết kế theo phong cách Baroque và cổ điển châu Âu, hoàn thành năm 1891.</t>
+  </si>
+  <si>
+    <t>Bảo tàng Lịch sử Thành phố Hồ Chí Minh nằm ở đâu và có gì đặc biệt?</t>
+  </si>
+  <si>
+    <t>Bảo tàng Lịch sử Thành phố Hồ Chí Minh nằm tại số 2 Nguyễn Bỉnh Khiêm, Quận 1. Đây là bảo tàng đầu tiên ở Nam Bộ, được xây dựng năm 1927 theo phong cách kiến trúc Đông Dương, trưng bày hơn 36.000 hiện vật phản ánh lịch sử Việt Nam và các nền văn hóa Châu Á.</t>
+  </si>
+  <si>
+    <t>Bảo tàng Thành phố Hồ Chí Minh trước đây từng mang những tên gọi nào?</t>
+  </si>
+  <si>
+    <t>Bảo tàng Thành phố Hồ Chí Minh trước đây từng là Dinh Thống đốc Nam Kỳ, Soái phủ Nam Kỳ, Dinh Khâm sai, Dinh Thủ hiến Nam phần, Dinh Quốc khánh, và Bảo tàng Cách mạng Thành phố Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>Bảo tàng Hồ Chí Minh - chi nhánh Thành phố Hồ Chí Minh gắn liền với sự kiện lịch sử nào?</t>
+  </si>
+  <si>
+    <t>Ngày 5 tháng 6 năm 1911, tại bến Nhà Rồng – nơi hiện nay là Bảo tàng Hồ Chí Minh, người thanh niên Nguyễn Tất Thành ra đi tìm đường cứu nước trên tàu Đô đốc Latouche-Tréville.</t>
+  </si>
+  <si>
+    <t>Tòa nhà Bảo tàng Mỹ thuật Thành phố Hồ Chí Minh được xây dựng bởi ai?</t>
+  </si>
+  <si>
+    <t>Tòa nhà được thương nhân Hui Bon Hoa (Chú Hỏa) xây dựng vào đầu thế kỷ 20 trên khu đất gần 10.000m², theo phong cách Tân cổ điển kết hợp Á Đông, nay là Bảo tàng Mỹ thuật Thành phố Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>Có thể tìm hiểu về nghệ thuật điêu khắc Champa ở đâu tại Thành phố Hồ Chí Minh?</t>
+  </si>
+  <si>
+    <t>Nghệ thuật điêu khắc Champa được trưng bày tại Bảo tàng Mỹ thuật và Bảo tàng Lịch sử Thành phố Hồ Chí Minh, nơi lưu giữ các tượng đá, phù điêu cổ và bộ sưu tập hiện vật Champa quý hiếm.</t>
+  </si>
+  <si>
+    <t>Du khách muốn tìm hiểu về áo dài Việt Nam nên đến đâu ở Thành phố Hồ Chí Minh?</t>
+  </si>
+  <si>
+    <t>Du khách nên đến Bảo tàng Áo Dài tại số 206/19/30 Long Thuận, phường Long Phước, thành phố Thủ Đức, nơi trưng bày hơn 500 mẫu áo dài qua các thời kỳ và nhiều áo của nghệ sĩ, nhà ngoại giao nổi tiếng Việt Nam.</t>
+  </si>
+  <si>
+    <t>Bảo tàng Chứng tích Chiến tranh có nội dung trưng bày gì đặc biệt?</t>
+  </si>
+  <si>
+    <t>Bảo tàng Chứng tích Chiến tranh trưng bày hơn 20.000 tư liệu, hình ảnh và hiện vật về tội ác chiến tranh, chất độc da cam, cùng chuyên đề “Việt Nam - Chiến tranh và Hòa bình” và “Bồ câu trắng” dành cho thiếu nhi.</t>
+  </si>
+  <si>
+    <t>Nhà thờ Đức Bà Sài Gòn được xây dựng trong thời gian nào?</t>
+  </si>
+  <si>
+    <t>Nhà thờ Đức Bà được khởi công năm 1877 và khánh thành năm 1880, theo thiết kế của kiến trúc sư J. Bourard, toàn bộ vật liệu xây dựng được nhập từ Pháp.</t>
+  </si>
+  <si>
+    <t>Nhà thờ Huyện Sĩ ở Quận 1 có điểm gì nổi bật trong kiến trúc?</t>
+  </si>
+  <si>
+    <t>Nhà thờ Huyện Sĩ được xây theo phong cách Gothic, khánh thành năm 1905, tháp chuông cao 57m, các cột và mặt tiền lát đá hoa cương Biên Hòa, bên trong có nhiều cửa kính màu và tượng thánh.</t>
+  </si>
+  <si>
+    <t>Vì sao Nhà thờ Cha Tam ở Quận 5 có nét kiến trúc khác biệt so với các nhà thờ khác?</t>
+  </si>
+  <si>
+    <t>Nhà thờ Cha Tam kết hợp kiến trúc Gothic châu Âu với yếu tố văn hóa Hoa, thể hiện qua cổng tam quan, mái ngói âm dương, hai cá chép và các câu liễn chữ Hán bên trong điện thờ.</t>
+  </si>
+  <si>
+    <t>Chùa Giác Lâm ở Quận Tân Bình có vai trò như thế nào trong lịch sử Phật giáo Việt Nam?</t>
+  </si>
+  <si>
+    <t>Chùa Giác Lâm được xây dựng năm 1744, là tổ đình của phái Lâm Tế và là một trong những ngôi chùa cổ nhất Nam Bộ, lưu giữ 113 tượng cổ và từng là cơ sở cách mạng trong hai cuộc kháng chiến.</t>
+  </si>
+  <si>
+    <t>Kiến trúc của Chùa Vĩnh Nghiêm (Quận 3) được xây dựng theo phong cách nào?</t>
+  </si>
+  <si>
+    <t>Chùa Vĩnh Nghiêm được xây năm 1964 theo phong cách chùa cổ miền Bắc, kết hợp vật liệu hiện đại, có tháp Quán Thế Âm cao gần 40m và Đại hồng chung do Phật tử Nhật Bản tặng.</t>
+  </si>
+  <si>
+    <t>Hội quán Tuệ Thành (Chùa Bà Thiên Hậu) ở Quận 5 thờ vị thần nào?</t>
+  </si>
+  <si>
+    <t>Hội quán Tuệ Thành thờ Bà Thiên Hậu Thánh Mẫu, được người Hoa gốc Quảng Đông xây dựng khoảng năm 1760, là một trong những ngôi chùa cổ nhất của người Hoa tại Thành phố Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>Lễ hội nào tiêu biểu cho văn hóa tín ngưỡng người Hoa tại Thành phố Hồ Chí Minh?</t>
+  </si>
+  <si>
+    <t>Lễ hội Nguyên tiêu (còn gọi Tết Nguyên tiêu, Rằm tháng Giêng, Lễ Thượng nguyên, Hội Nguyên tiêu, Lễ hội Hoa đăng, Lễ tình nhân, Hội đèn lồng mùa xuân, Tân niên, Chúc khánh Nguyên tiêu) là lễ hội tiêu biểu của văn hóa tín ngưỡng người Hoa tại Thành phố Hồ Chí Minh.</t>
+  </si>
+  <si>
+    <t>Giao thông công cộng quanh khu vực trung tâm Quận 1 có đặc điểm gì nổi bật?</t>
+  </si>
+  <si>
+    <t>Quận 1 là trung tâm Thành phố Hồ Chí Minh, có mạng lưới xe buýt dày đặc, các tuyến đường kết nối các quận khác, thuận tiện cho du khách di chuyển đến các điểm tham quan như Nhà thờ Đức Bà, Bưu điện Thành phố, và Dinh Độc Lập.</t>
+  </si>
+  <si>
+    <t>Ẩm thực vùng Cần Giờ có đặc điểm gì nổi bật so với các khu vực khác của Thành phố Hồ Chí Minh?</t>
+  </si>
+  <si>
+    <t>Ẩm thực Cần Giờ nổi bật với các món hải sản tươi sống do địa phương có đường bờ biển dài và nguồn thủy hải sản phong phú.</t>
+  </si>
+  <si>
+    <t>Tại khu vực trung tâm Thành phố Hồ Chí Minh, du khách có thể trải nghiệm ẩm thực đường phố ở đâu?</t>
+  </si>
+  <si>
+    <t>Du khách có thể trải nghiệm ẩm thực đường phố đa dạng tại khu Phố đi bộ Bùi Viện, nơi tập trung nhiều quán ăn và đồ uống dành cho khách du lịch.</t>
+  </si>
+  <si>
+    <t>Chợ Bình Tây ở Quận 6 nổi tiếng với các loại hàng hóa và ẩm thực như thế nào?</t>
+  </si>
+  <si>
+    <t>Chợ Bình Tây là nơi buôn bán sầm uất, có nhiều gian hàng ẩm thực, hàng khô, trái cây và các món ăn đặc trưng của người Hoa.</t>
+  </si>
+  <si>
+    <t>Du khách có thể tìm thấy khu vực bán ẩm thực phong phú nào trong Chợ Bến Thành, Quận 1?</t>
+  </si>
+  <si>
+    <t>Trong Chợ Bến Thành có khu ẩm thực với nhiều món ăn truyền thống Việt Nam và món ăn đặc trưng của Sài Gòn phục vụ du khách trong và ngoài nước.</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF535FC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -767,6 +776,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,10 +1085,10 @@
     </row>
     <row r="2" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1100,11 +1115,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1116,15 +1131,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1180,11 +1195,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1196,7 +1211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1212,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1220,7 +1235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1236,156 +1251,156 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1396,87 +1411,87 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>100</v>
       </c>
@@ -1484,111 +1499,111 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>128</v>
       </c>
@@ -1596,7 +1611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>130</v>
       </c>
@@ -1604,7 +1619,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>132</v>
       </c>
@@ -1612,7 +1627,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>134</v>
       </c>
@@ -1628,7 +1643,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>138</v>
       </c>
@@ -1644,7 +1659,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>142</v>
       </c>
@@ -1652,212 +1667,212 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
@@ -1866,14 +1881,6 @@
       </c>
       <c r="B101" s="4" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/evaluate/data/data_evaluate_TPHCM.xlsx
+++ b/evaluate/data/data_evaluate_TPHCM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDTU\Year_4_Semester1\Dự án\Code\evaluate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4640A5DE-7057-4079-969C-34E9B9255572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C47299F-791C-4C4C-9493-AA5D4A876FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,12 +216,6 @@
     <t>Du khách đến Thiềng Liềng có thể thưởng thức các món ẩm thực dân dã của vùng ấp đảo như hải sản tươi sống, cá khô, muối thủ công và các món ăn mang hương vị miền biển đặc trưng.</t>
   </si>
   <si>
-    <t>Khi đến Nhà thờ Hạnh Thông Tây ở Gò Vấp, du khách có thể tìm thấy món ăn truyền thống nào gần khu vực này?</t>
-  </si>
-  <si>
-    <t>Khu vực quanh Nhà thờ Hạnh Thông Tây nổi tiếng với các quán ăn địa phương như bún bò, hủ tiếu, và cà phê vỉa hè mang phong vị đặc trưng Sài Gòn xưa.</t>
-  </si>
-  <si>
     <t>Nhà thờ Thủ Thiêm có điểm gì nổi bật về kiến trúc thu hút du khách?</t>
   </si>
   <si>
@@ -270,12 +264,6 @@
     <t>Đình có ba lễ lớn: Lễ Kỳ yên (15–17 tháng 2 âm lịch), Lễ Hạ điền (16 tháng 5 âm lịch), và Lễ Cầu bông (16 tháng 10 âm lịch), đều gắn với nghi lễ cầu an và hát bội truyền thống.</t>
   </si>
   <si>
-    <t>Miếu Nổi (Gò Vấp) có những ngày lễ cúng lớn nào trong năm?</t>
-  </si>
-  <si>
-    <t>Miếu tổ chức 3 lễ vía Ngũ Hành Nương Nương vào ngày 15 tháng 2, 15 tháng 4 và 15 tháng 8 âm lịch, thu hút đông đảo khách hành hương.</t>
-  </si>
-  <si>
     <t>Tuyến đường nào ở Quận Phú Nhuận được biết đến là Phố Ẩm thực nổi tiếng của Thành phố Hồ Chí Minh?</t>
   </si>
   <si>
@@ -312,12 +300,6 @@
     <t>Vì từ cuối thế kỷ 19, nơi đây tập trung nhiều nhà buôn người Hoa dự trữ và bán thuốc Đông y, hình thành khu phố chuyên thuốc Bắc.</t>
   </si>
   <si>
-    <t>Phố Đông y tại Quận 5 cung cấp những loại hình dịch vụ gì?</t>
-  </si>
-  <si>
-    <t>Phố Đông y cung cấp dịch vụ khám chữa bệnh bằng y học cổ truyền và bán buôn, bán lẻ dược liệu, thuốc đông y.</t>
-  </si>
-  <si>
     <t>Du khách đến Phố Đông y có thể trải nghiệm điều gì đặc biệt?</t>
   </si>
   <si>
@@ -360,30 +342,12 @@
     <t>Trẻ em có thể học trồng hoa, trồng lúa, pha trà, tham gia trò chơi dân gian và tìm hiểu văn hóa dân tộc.</t>
   </si>
   <si>
-    <t>Nghề thủ công truyền thống nào vẫn còn tồn tại ở Quận Gò Vấp?</t>
-  </si>
-  <si>
-    <t>Nghề đúc đồng tại làng An Hội, Phường 12, Quận Gò Vấp vẫn còn được gìn giữ qua nhiều thế hệ.</t>
-  </si>
-  <si>
     <t>Vào dịp Tết, làng nghề đúc đồng An Hội diễn ra hoạt động gì đặc biệt?</t>
   </si>
   <si>
     <t>Các lò đúc đồng hoạt động nhộn nhịp, sản xuất nhiều bộ lư đồng mới để cung cấp cho thị trường Nam Bộ.</t>
   </si>
   <si>
-    <t>Ở Quận 8, du khách có thể tham quan và thử làm sản phẩm thủ công nào?</t>
-  </si>
-  <si>
-    <t>Du khách có thể đến cơ sở lò đất của ông Trần Văn Tiếp để thử làm “bếp ông Táo” bằng tay.</t>
-  </si>
-  <si>
-    <t>Tuyến đường nào giúp kết nối dễ dàng từ Phan Xích Long (Phú Nhuận) đến các quận trung tâm Thành phố?</t>
-  </si>
-  <si>
-    <t>Tuyến Phan Xích Long kết nối thuận lợi Quận Phú Nhuận với Quận 1, Quận 3, Tân Bình và Bình Thạnh.</t>
-  </si>
-  <si>
     <t>Những món ăn đặc trưng nhất của người Sài Gòn là gì?</t>
   </si>
   <si>
@@ -402,9 +366,6 @@
     <t>Người Hoa ở Chợ Lớn phát triển mạnh nghề thương mại và công kỹ nghệ nhẹ, đồng thời mang đến những món ăn Trung Hoa như há cảo, vịt quay Bắc Kinh, góp phần làm phong phú ẩm thực Sài Gòn.</t>
   </si>
   <si>
-    <t>Du khách có thể tìm thấy ẩm thực quốc tế ở đâu tại Thành phố Hồ Chí Minh?</t>
-  </si>
-  <si>
     <t>Ở Thành phố Hồ Chí Minh có thể dễ dàng tìm thấy món ăn Nga, Ý, Đức, Pháp, Hàn Quốc, Nhật Bản, Khmer, Thái Lan, Ấn Độ, và cả món ăn hala dành cho người Hồi giáo.</t>
   </si>
   <si>
@@ -468,12 +429,6 @@
     <t>Lễ hội Kỳ Yên ở các đình làng, lễ hội của các tôn giáo như đạo Phật, Cao Đài, Hòa Hảo, Thiên Chúa, và Tin Lành là những lễ hội tín ngưỡng đặc trưng của Thành phố.</t>
   </si>
   <si>
-    <t>Có quán ăn hoặc khu ẩm thực nổi tiếng nào gần Hội quán Nghĩa An (678 Nguyễn Trãi, Quận 5) không?</t>
-  </si>
-  <si>
-    <t>Hội quán Nghĩa An nằm trên trục đường Nguyễn Trãi – khu vực tập trung nhiều quán ăn người Hoa nổi tiếng như dimsum, mì vịt tiềm, phá lấu và bánh bao truyền thống.</t>
-  </si>
-  <si>
     <t>Có thể tìm hiểu về lịch sử và văn hóa của Thành phố Hồ Chí Minh ở đâu?</t>
   </si>
   <si>
@@ -492,12 +447,6 @@
     <t>Khu vực trung tâm Quận 1 và Quận 5 có nhiều món ăn đường phố nổi tiếng như bánh mì, hủ tiếu, cơm tấm, chè Hoa và các món nướng đêm, thể hiện nét “thành phố không ngủ” của Sài Gòn.</t>
   </si>
   <si>
-    <t>Thành phố Hồ Chí Minh có bao nhiêu cơ sở tín ngưỡng được thống kê?</t>
-  </si>
-  <si>
-    <t>Hiện nay Thành phố có 1.073 cơ sở tín ngưỡng, bao gồm đình, đền, miếu, am, lăng và hội quán.</t>
-  </si>
-  <si>
     <t>Tại sao người Sài Gòn được cho là cởi mở với nhiều tôn giáo khác nhau?</t>
   </si>
   <si>
@@ -516,12 +465,6 @@
     <t>Du khách có thể đến Căn cứ Rừng Sác bằng đường thủy hoặc đường bộ qua huyện Nhà Bè – Cần Giờ, theo tuyến quốc lộ 15 hoặc tàu cao tốc trên sông Lòng Tàu.</t>
   </si>
   <si>
-    <t>Cầu Mống có đặc điểm kỹ thuật gì đặc biệt so với các cầu khác?</t>
-  </si>
-  <si>
-    <t>Cầu Mống là cây cầu sắt đầu tiên ở Sài Gòn, được xây dựng theo kỹ thuật Eiffel với một nhịp vòm cong dài 128m và hoàn toàn bằng thép.</t>
-  </si>
-  <si>
     <t>Bưu điện Thành phố Hồ Chí Minh được thiết kế theo phong cách nào và do ai thực hiện?</t>
   </si>
   <si>
@@ -612,12 +555,6 @@
     <t>Lễ hội Nguyên tiêu (còn gọi Tết Nguyên tiêu, Rằm tháng Giêng, Lễ Thượng nguyên, Hội Nguyên tiêu, Lễ hội Hoa đăng, Lễ tình nhân, Hội đèn lồng mùa xuân, Tân niên, Chúc khánh Nguyên tiêu) là lễ hội tiêu biểu của văn hóa tín ngưỡng người Hoa tại Thành phố Hồ Chí Minh.</t>
   </si>
   <si>
-    <t>Giao thông công cộng quanh khu vực trung tâm Quận 1 có đặc điểm gì nổi bật?</t>
-  </si>
-  <si>
-    <t>Quận 1 là trung tâm Thành phố Hồ Chí Minh, có mạng lưới xe buýt dày đặc, các tuyến đường kết nối các quận khác, thuận tiện cho du khách di chuyển đến các điểm tham quan như Nhà thờ Đức Bà, Bưu điện Thành phố, và Dinh Độc Lập.</t>
-  </si>
-  <si>
     <t>Ẩm thực vùng Cần Giờ có đặc điểm gì nổi bật so với các khu vực khác của Thành phố Hồ Chí Minh?</t>
   </si>
   <si>
@@ -640,6 +577,69 @@
   </si>
   <si>
     <t>Trong Chợ Bến Thành có khu ẩm thực với nhiều món ăn truyền thống Việt Nam và món ăn đặc trưng của Sài Gòn phục vụ du khách trong và ngoài nước.</t>
+  </si>
+  <si>
+    <t>Du khách có thể tìm thấy những ẩm thực quốc tế nào tại Thành phố Hồ Chí Minh?</t>
+  </si>
+  <si>
+    <t>Thảo Cầm Viên Sài Gòn nằm ở đâu và có ý nghĩa gì về mặt du lịch?</t>
+  </si>
+  <si>
+    <t>Thảo Cầm Viên Sài Gòn nằm tại số 2 đường Nguyễn Bỉnh Khiêm, Quận 1; là công viên sinh thái lâu đời, vừa là điểm tham quan, vừa là nơi bảo tồn động thực vật quý hiếm.</t>
+  </si>
+  <si>
+    <t>Điện Ngọc Hoàng ở Quận 1 là điểm du lịch thu hút du khách bởi yếu tố nào?</t>
+  </si>
+  <si>
+    <t>Điện Ngọc Hoàng thu hút du khách bởi kiến trúc cổ kính, chạm khắc tinh xảo và không gian linh thiêng thờ Ngọc Hoàng Thượng Đế.</t>
+  </si>
+  <si>
+    <t>Đền thờ Hùng Vương ở đường Nguyễn Bỉnh Khiêm, Quận 1, có đặc điểm kiến trúc nổi bật nào?</t>
+  </si>
+  <si>
+    <t>Đền thờ Hùng Vương có kiến trúc Đông Dương độc đáo, kết hợp giữa phong cách Á Đông và kỹ thuật phương Tây, mái ngói âm dương và họa tiết rồng phượng tinh tế.</t>
+  </si>
+  <si>
+    <t>Lăng Lê Văn Duyệt ở Quận Bình Thạnh được biết đến như một điểm tham quan đặc sắc vì lý do gì?</t>
+  </si>
+  <si>
+    <t>Lăng Lê Văn Duyệt là công trình kiến trúc nghệ thuật lớn, gắn liền với cuộc đời vị Tả quân Lê Văn Duyệt – một công thần triều Nguyễn, được người dân tôn kính thờ phụng.</t>
+  </si>
+  <si>
+    <t>Lăng Ông Thủy Tướng ở Cần Giờ thu hút du khách bởi điều gì đặc biệt?</t>
+  </si>
+  <si>
+    <t>Lăng Ông Thủy Tướng thu hút du khách nhờ lễ hội Nghinh Ông và bộ xương cá Ông dài 12 mét được trưng bày trang trọng trong khuôn viên lăng.</t>
+  </si>
+  <si>
+    <t>Tại Quận 1, du khách có thể tham quan tuyến phố đi bộ nổi tiếng nào và điểm đặc sắc là gì?</t>
+  </si>
+  <si>
+    <t>Du khách có thể tham quan Phố đi bộ Nguyễn Huệ, nổi bật với hệ thống nhạc nước, ánh sáng nghệ thuật và không gian đi bộ hiện đại giữa trung tâm thành phố.</t>
+  </si>
+  <si>
+    <t>Phố đi bộ Bùi Viện ở Quận 1 mang đến cho du khách trải nghiệm gì đặc biệt?</t>
+  </si>
+  <si>
+    <t>Phố đi bộ Bùi Viện mang đến không khí sôi động về đêm với nhiều hoạt động văn hóa, nghệ thuật và dịch vụ du lịch miễn phí như wifi, vệ sinh và hỗ trợ thông tin.</t>
+  </si>
+  <si>
+    <t>Du khách đến Cần Giờ có thể tham quan khu du lịch sinh thái nào nổi tiếng?</t>
+  </si>
+  <si>
+    <t>Du khách có thể tham quan Rừng ngập mặn Cần Giờ – Khu dự trữ sinh quyển thế giới đầu tiên tại Việt Nam do UNESCO công nhận năm 2000.</t>
+  </si>
+  <si>
+    <t>Những địa điểm vui chơi, giải trí nào được nhắc đến trong khu vực Cần Giờ?</t>
+  </si>
+  <si>
+    <t>Các điểm vui chơi gồm Khu du lịch Vàm Sát, Khu du lịch 30/4, Đảo Thạnh An, và Khu sinh thái Dần Xây.</t>
+  </si>
+  <si>
+    <t>Trong các sự kiện du lịch, Lễ hội Áo dài Thành phố Hồ Chí Minh được tổ chức nhằm mục đích gì?</t>
+  </si>
+  <si>
+    <t>Lễ hội Áo dài nhằm tôn vinh vẻ đẹp truyền thống của trang phục Áo dài Việt Nam, quảng bá hình ảnh Thành phố Hồ Chí Minh thân thiện và năng động đến du khách.</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -741,26 +741,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -773,9 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,723 +1066,723 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>147</v>
+    <row r="22" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>53</v>
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="40" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="41" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>133</v>
+      <c r="A69" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="7" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+      <c r="B77" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="7" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="7" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="4" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
@@ -1811,7 +1793,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>184</v>
       </c>
@@ -1827,7 +1809,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>188</v>
       </c>
@@ -1835,7 +1817,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>190</v>
       </c>
@@ -1843,7 +1825,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>192</v>
       </c>
@@ -1851,15 +1833,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>196</v>
       </c>
